--- a/NitSalarySlip_v2/media/AllMonthData/January_2023.xlsx
+++ b/NitSalarySlip_v2/media/AllMonthData/January_2023.xlsx
@@ -1,61 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Code\NitSalarySlip\NitSalarySlip\media\AllMonthData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09C1962-48AD-4D7B-9C19-2C92AFA988B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F79553B-FA85-439B-91C0-4FDCF2626772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{169C4AF1-A4F9-4907-ADA1-ED5C29E4703D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{52F96D8B-4E8A-4A33-BCF7-7FD40C967669}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>10% NPS of Employee share</t>
+  </si>
+  <si>
+    <t>Total Du.</t>
+  </si>
+  <si>
+    <t>14% NPS of Institute  share</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Hemant Kant Pushpam</t>
+  </si>
+  <si>
+    <t>Bina Rai</t>
+  </si>
+  <si>
+    <t>Pyuish Randeep</t>
+  </si>
+  <si>
+    <t>Bhaskar Lal Das</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>SOURCE 1</t>
-  </si>
-  <si>
-    <t>SOURCE 2</t>
-  </si>
-  <si>
-    <t>SOURCE 3</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Dev Kumar</t>
-  </si>
-  <si>
-    <t>Ram Kumar</t>
+    <t>TA_Arrear</t>
+  </si>
+  <si>
+    <t>Inc_Allow</t>
+  </si>
+  <si>
+    <t>DA_Arrear</t>
+  </si>
+  <si>
+    <t>Income_Tax</t>
+  </si>
+  <si>
+    <t>Licence_Fee</t>
+  </si>
+  <si>
+    <t>Net_Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +126,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -80,15 +159,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3300D7DD-9567-452E-9824-C6F203C1EE58}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,82 +590,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31797002-A58B-4DB7-BEA2-D02A9EC62AF1}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0E826-C111-4662-829E-B6E1F7B9C15A}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>509</v>
-      </c>
-      <c r="C2">
-        <v>233</v>
-      </c>
-      <c r="D2">
-        <v>268</v>
-      </c>
-      <c r="E2">
-        <v>456</v>
-      </c>
-      <c r="F2">
-        <f>SUM(C2+D2+E2)</f>
-        <v>957</v>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6">
+        <v>114100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>47922</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H2" s="6">
+        <v>11410</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5112</v>
+      </c>
+      <c r="J2" s="6">
+        <v>576</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>18256</v>
+      </c>
+      <c r="N2" s="6">
+        <v>200526</v>
+      </c>
+      <c r="O2" s="7">
+        <v>27000</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1840</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>18028</v>
+      </c>
+      <c r="R2" s="7">
+        <v>46868</v>
+      </c>
+      <c r="S2" s="6">
+        <v>153658</v>
+      </c>
+      <c r="T2" s="6">
+        <v>25239</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>502</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3">
-        <v>899</v>
-      </c>
-      <c r="E3">
-        <v>4541</v>
-      </c>
-      <c r="F3">
-        <f>SUM(C3+D3+E3)</f>
-        <v>5940</v>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>114100</v>
+      </c>
+      <c r="F3" s="7">
+        <v>47922</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11410</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5112</v>
+      </c>
+      <c r="J3" s="6">
+        <v>576</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>18256</v>
+      </c>
+      <c r="N3" s="6">
+        <v>200526</v>
+      </c>
+      <c r="O3" s="7">
+        <v>27000</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1840</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>18028</v>
+      </c>
+      <c r="R3" s="7">
+        <v>46868</v>
+      </c>
+      <c r="S3" s="6">
+        <v>153658</v>
+      </c>
+      <c r="T3" s="6">
+        <v>25239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6">
+        <v>114100</v>
+      </c>
+      <c r="F4" s="7">
+        <v>47922</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H4" s="6">
+        <v>11410</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5112</v>
+      </c>
+      <c r="J4" s="6">
+        <v>576</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>18256</v>
+      </c>
+      <c r="N4" s="6">
+        <v>200526</v>
+      </c>
+      <c r="O4" s="7">
+        <v>27000</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1840</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>18028</v>
+      </c>
+      <c r="R4" s="7">
+        <v>46868</v>
+      </c>
+      <c r="S4" s="6">
+        <v>153658</v>
+      </c>
+      <c r="T4" s="6">
+        <v>25239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>114100</v>
+      </c>
+      <c r="F5" s="7">
+        <v>47922</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H5" s="6">
+        <v>11410</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5112</v>
+      </c>
+      <c r="J5" s="6">
+        <v>576</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>18256</v>
+      </c>
+      <c r="N5" s="6">
+        <v>200526</v>
+      </c>
+      <c r="O5" s="7">
+        <v>27000</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1840</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>18028</v>
+      </c>
+      <c r="R5" s="7">
+        <v>46868</v>
+      </c>
+      <c r="S5" s="6">
+        <v>153658</v>
+      </c>
+      <c r="T5" s="6">
+        <v>25239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>114100</v>
+      </c>
+      <c r="F6" s="7">
+        <v>47922</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3150</v>
+      </c>
+      <c r="H6" s="6">
+        <v>11410</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5112</v>
+      </c>
+      <c r="J6" s="6">
+        <v>576</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>18256</v>
+      </c>
+      <c r="N6" s="6">
+        <v>200526</v>
+      </c>
+      <c r="O6" s="7">
+        <v>27000</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1840</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>18028</v>
+      </c>
+      <c r="R6" s="7">
+        <v>46868</v>
+      </c>
+      <c r="S6" s="6">
+        <v>153658</v>
+      </c>
+      <c r="T6" s="6">
+        <v>25239</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>